--- a/File color.xlsx
+++ b/File color.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fall GR01\Fall_Group01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\SWD302\Data\Fall_Group01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5435BAA0-E5D6-46EC-BD11-8415507514E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{BBCC0610-AF61-4C5A-905E-CD07E36BC044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,51 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
-  <si>
-    <t>#2a3643</t>
-  </si>
-  <si>
-    <t>#e1e2e4</t>
-  </si>
-  <si>
-    <t>#2e4dd4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bo 1</t>
   </si>
   <si>
-    <t>#eeeeee</t>
-  </si>
-  <si>
     <t>Menu (main)</t>
   </si>
   <si>
-    <t>Hover table</t>
-  </si>
-  <si>
     <t>background</t>
   </si>
   <si>
-    <t>back table, search, pagging</t>
-  </si>
-  <si>
     <t>Theme 2</t>
   </si>
   <si>
-    <t>#ffffff</t>
-  </si>
-  <si>
     <t>#393b44</t>
   </si>
   <si>
     <t>#f1f3f8</t>
-  </si>
-  <si>
-    <t>#d6e0f0</t>
-  </si>
-  <si>
-    <t>Text</t>
   </si>
   <si>
     <t>#056676</t>
@@ -93,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,14 +132,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -482,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193F0898-E66A-4ED7-AF5B-93774FDA839B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,124 +471,84 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
